--- a/test/1. 各院彙整資料/外國語文學院.xlsx
+++ b/test/1. 各院彙整資料/外國語文學院.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40984B70-2FF6-47B8-9B69-1A74B114CE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D168343-8D61-41E7-ABA6-5FFE9A8BC6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{937C2018-99C7-470E-A4B7-12CADE0D6D7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C42FF5B4-CD2E-4667-A632-EE357CA7A603}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF92930-F699-45E5-B1CF-9081B0A43A94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E9105E-1EDE-4D61-9251-05F6E918E986}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/test/1. 各院彙整資料/外國語文學院.xlsx
+++ b/test/1. 各院彙整資料/外國語文學院.xlsx
@@ -5,34 +5,34 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965622E7-ACB7-478D-B1B2-10B59978C415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C7197B-3D26-4FF8-8F46-84503A5AE069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{3D2940B3-B07D-433D-8DD5-7ECE21953BE2}"/>
+    <workbookView xWindow="1560" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{3D2940B3-B07D-433D-8DD5-7ECE21953BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="2" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="3" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="4" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="5" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="6" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="7" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="8" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="41">
   <si>
     <t>外語學院</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>500 外國語文學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>500 外國語文學院</t>
   </si>
   <si>
     <t>501 英國語文學系</t>
@@ -503,46 +500,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -550,14 +544,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -565,7 +559,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A2C-4E16-957A-B6C87B87DD45}"/>
+              <c16:uniqueId val="{00000000-4DF2-4313-B7DB-25BBE1A21F66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -600,46 +594,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -647,14 +638,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -662,7 +653,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4A2C-4E16-957A-B6C87B87DD45}"/>
+              <c16:uniqueId val="{00000001-4DF2-4313-B7DB-25BBE1A21F66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -697,46 +688,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -744,14 +732,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -759,7 +747,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4A2C-4E16-957A-B6C87B87DD45}"/>
+              <c16:uniqueId val="{00000002-4DF2-4313-B7DB-25BBE1A21F66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -870,7 +858,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4A2C-4E16-957A-B6C87B87DD45}"/>
+                  <c16:uniqueId val="{00000003-4DF2-4313-B7DB-25BBE1A21F66}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -942,46 +930,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -989,14 +974,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1005,7 +990,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4A2C-4E16-957A-B6C87B87DD45}"/>
+              <c16:uniqueId val="{00000004-4DF2-4313-B7DB-25BBE1A21F66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1286,46 +1271,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -1333,14 +1315,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1348,7 +1330,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2719-41C8-9614-58ACEE33BDB6}"/>
+              <c16:uniqueId val="{00000000-E397-41A0-9F6F-7933589423B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1383,46 +1365,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -1430,14 +1409,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1445,7 +1424,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2719-41C8-9614-58ACEE33BDB6}"/>
+              <c16:uniqueId val="{00000001-E397-41A0-9F6F-7933589423B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1480,46 +1459,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -1527,14 +1503,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1542,7 +1518,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2719-41C8-9614-58ACEE33BDB6}"/>
+              <c16:uniqueId val="{00000002-E397-41A0-9F6F-7933589423B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1653,7 +1629,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2719-41C8-9614-58ACEE33BDB6}"/>
+                  <c16:uniqueId val="{00000003-E397-41A0-9F6F-7933589423B9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1725,46 +1701,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -1772,14 +1745,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1788,7 +1761,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2719-41C8-9614-58ACEE33BDB6}"/>
+              <c16:uniqueId val="{00000004-E397-41A0-9F6F-7933589423B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2069,46 +2042,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -2116,14 +2086,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2131,7 +2101,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC01-4F94-8D7F-978C90912928}"/>
+              <c16:uniqueId val="{00000000-5BA9-4C12-A182-1AFFC72C2FD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2166,46 +2136,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -2213,14 +2180,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2228,7 +2195,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC01-4F94-8D7F-978C90912928}"/>
+              <c16:uniqueId val="{00000001-5BA9-4C12-A182-1AFFC72C2FD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2263,46 +2230,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -2310,14 +2274,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2325,7 +2289,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC01-4F94-8D7F-978C90912928}"/>
+              <c16:uniqueId val="{00000002-5BA9-4C12-A182-1AFFC72C2FD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2436,7 +2400,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EC01-4F94-8D7F-978C90912928}"/>
+                  <c16:uniqueId val="{00000003-5BA9-4C12-A182-1AFFC72C2FD4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2508,46 +2472,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -2555,14 +2516,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2571,7 +2532,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EC01-4F94-8D7F-978C90912928}"/>
+              <c16:uniqueId val="{00000004-5BA9-4C12-A182-1AFFC72C2FD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2852,46 +2813,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -2899,14 +2857,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2914,7 +2872,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6047-4AA2-992B-A46F326AF1D0}"/>
+              <c16:uniqueId val="{00000000-1D5E-4408-AE28-8B0E6DDC6BD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2949,46 +2907,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -2996,14 +2951,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3011,7 +2966,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6047-4AA2-992B-A46F326AF1D0}"/>
+              <c16:uniqueId val="{00000001-1D5E-4408-AE28-8B0E6DDC6BD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3046,46 +3001,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -3093,14 +3045,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3108,7 +3060,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6047-4AA2-992B-A46F326AF1D0}"/>
+              <c16:uniqueId val="{00000002-1D5E-4408-AE28-8B0E6DDC6BD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3219,7 +3171,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6047-4AA2-992B-A46F326AF1D0}"/>
+                  <c16:uniqueId val="{00000003-1D5E-4408-AE28-8B0E6DDC6BD4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3291,46 +3243,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -3338,14 +3287,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -3354,7 +3303,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6047-4AA2-992B-A46F326AF1D0}"/>
+              <c16:uniqueId val="{00000004-1D5E-4408-AE28-8B0E6DDC6BD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3635,46 +3584,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -3682,14 +3628,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3697,7 +3643,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-134E-4801-B2EC-71DA3A62BE22}"/>
+              <c16:uniqueId val="{00000000-1B34-46B7-B8D5-35B88F23CD22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3732,46 +3678,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -3779,14 +3722,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3794,7 +3737,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-134E-4801-B2EC-71DA3A62BE22}"/>
+              <c16:uniqueId val="{00000001-1B34-46B7-B8D5-35B88F23CD22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3829,46 +3772,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -3876,14 +3816,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3891,7 +3831,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-134E-4801-B2EC-71DA3A62BE22}"/>
+              <c16:uniqueId val="{00000002-1B34-46B7-B8D5-35B88F23CD22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4002,7 +3942,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-134E-4801-B2EC-71DA3A62BE22}"/>
+                  <c16:uniqueId val="{00000003-1B34-46B7-B8D5-35B88F23CD22}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4074,46 +4014,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -4121,14 +4058,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4137,7 +4074,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-134E-4801-B2EC-71DA3A62BE22}"/>
+              <c16:uniqueId val="{00000004-1B34-46B7-B8D5-35B88F23CD22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4418,46 +4355,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -4465,14 +4399,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4480,7 +4414,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0AAE-4D66-8919-976511EB1E51}"/>
+              <c16:uniqueId val="{00000000-9C23-40D5-A1ED-C818DF67303E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4515,46 +4449,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -4562,14 +4493,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4577,7 +4508,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0AAE-4D66-8919-976511EB1E51}"/>
+              <c16:uniqueId val="{00000001-9C23-40D5-A1ED-C818DF67303E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4612,46 +4543,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -4659,14 +4587,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -4674,7 +4602,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0AAE-4D66-8919-976511EB1E51}"/>
+              <c16:uniqueId val="{00000002-9C23-40D5-A1ED-C818DF67303E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4785,7 +4713,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0AAE-4D66-8919-976511EB1E51}"/>
+                  <c16:uniqueId val="{00000003-9C23-40D5-A1ED-C818DF67303E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4857,46 +4785,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -4904,14 +4829,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4920,7 +4845,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0AAE-4D66-8919-976511EB1E51}"/>
+              <c16:uniqueId val="{00000004-9C23-40D5-A1ED-C818DF67303E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5201,46 +5126,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -5248,14 +5170,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5263,7 +5185,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0461-431C-9C2C-B5D65634A7EF}"/>
+              <c16:uniqueId val="{00000000-5910-46F5-8CE7-EE624713E37A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5298,46 +5220,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -5345,14 +5264,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -5360,7 +5279,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0461-431C-9C2C-B5D65634A7EF}"/>
+              <c16:uniqueId val="{00000001-5910-46F5-8CE7-EE624713E37A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5395,46 +5314,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -5442,14 +5358,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -5457,7 +5373,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0461-431C-9C2C-B5D65634A7EF}"/>
+              <c16:uniqueId val="{00000002-5910-46F5-8CE7-EE624713E37A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5568,7 +5484,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0461-431C-9C2C-B5D65634A7EF}"/>
+                  <c16:uniqueId val="{00000003-5910-46F5-8CE7-EE624713E37A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5640,46 +5556,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>外語學院</c:v>
+                  <c:v>英文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>英文系</c:v>
+                  <c:v>阿文系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>阿文系</c:v>
+                  <c:v>斯語系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>斯語系</c:v>
+                  <c:v>日文系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日文系</c:v>
+                  <c:v>韓文系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>韓文系</c:v>
+                  <c:v>土文系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>土文系</c:v>
+                  <c:v>語言所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>語言所</c:v>
+                  <c:v>歐語系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>歐語系</c:v>
+                  <c:v>英教碩</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>英教碩</c:v>
+                  <c:v>中東碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
@@ -5687,14 +5600,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -5703,7 +5616,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0461-431C-9C2C-B5D65634A7EF}"/>
+              <c16:uniqueId val="{00000004-5910-46F5-8CE7-EE624713E37A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5932,7 +5845,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200E59D7-8EA0-4B28-B2CC-013AB6FA97DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A6C6FB-1F9F-4903-B99A-D7CAC5C8E1B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5965,7 +5878,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20C08AC-954B-493A-B101-41358821EB19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3B1E14-BBA5-4DBA-9CE2-96901A5AB182}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5998,7 +5911,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6C8DFA-CCB7-4351-861D-9C949B83EC69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79A3771-D583-42DA-B218-1E7A753EACB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6031,7 +5944,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA628CB8-DED2-4D1C-8D53-4D38846B893A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE716CC-205C-43D1-B90C-139AC01D54ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6064,7 +5977,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC926BF6-1ADA-41E6-8D1D-B6E0A7C3F7E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15229E1A-79CD-4004-8078-4C8E65ACAE33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6097,7 +6010,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC2B774-C357-48CD-AF34-34C1AB85BFCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D18390-6599-44C4-8C9F-8F897590C9EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6130,7 +6043,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10039F9-8CC4-471B-805C-49446367219D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1533BEA7-0E56-428A-8BE0-F5D214109C28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6180,7 +6093,7 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>院均值</v>
+            <v>科系1</v>
           </cell>
           <cell r="C2">
             <v>0.06</v>
@@ -6197,7 +6110,7 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>測試二</v>
+            <v>院均值</v>
           </cell>
           <cell r="C3">
             <v>0.05</v>
@@ -6604,25 +6517,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{A806002B-7752-47AC-BF93-6ED510C0DF0F}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{6800A15E-6A07-49C3-9463-ECF9B0B76ED1}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{4717D99D-59DA-4949-BF51-17B66255A644}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{59D88979-4252-4CDA-A8F5-F1F5918EC95E}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{DD7776B0-86AC-44A4-967D-5162F441E47A}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{FB32A18B-CF14-431A-B072-95E5D51DE5B6}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{3FDA31A2-1919-4FD1-AB5C-6E7AEED9A7F8}"/>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{472DCF8D-FFB4-473D-86BB-E5CB8079C9A4}"/>
+    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{67994E35-9462-4BF9-A6D2-A1B09D915C61}"/>
+    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{BEFDB76F-68A2-41AD-A671-D661D59B0E1C}"/>
+    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{3675FC0C-CAB6-41BC-84A7-04E38C8A9724}"/>
+    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{9DA512A5-4266-4E0F-B055-741680E5186C}"/>
+    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{154A249B-AE45-47C4-93B1-325D1D74788A}"/>
+    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{72591EE3-758C-4A13-80FB-C75021CDE342}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752A9303-E9EA-4E00-8F6C-5B55A00197FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1098125A-B9D1-4E76-AD60-2AFAC2308882}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6677,16 +6590,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6699,7 +6610,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6712,7 +6623,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6725,7 +6636,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6738,7 +6649,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6751,7 +6662,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -6764,7 +6675,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -6777,7 +6688,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -6790,7 +6701,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -6803,7 +6714,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -6816,39 +6727,28 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="C13" s="10">
         <v>0.05</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D13" s="10">
         <v>0.04</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E13" s="10">
         <v>0.01</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F13" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6859,12 +6759,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BC74A4-0B70-422B-8132-0364932CAE01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDA51D1-2379-497E-BC8B-8676833F4F4F}">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6919,16 +6819,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6941,7 +6839,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6954,7 +6852,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6967,7 +6865,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6980,7 +6878,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6993,7 +6891,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -7006,7 +6904,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -7019,7 +6917,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -7032,7 +6930,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -7045,7 +6943,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -7058,39 +6956,28 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="C13" s="10">
         <v>0.05</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D13" s="10">
         <v>0.04</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E13" s="10">
         <v>0.01</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F13" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7101,12 +6988,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A375E25-85B4-4111-A2B3-79A468B95718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C32638-B3DB-49B8-AA3C-9BC9521E8911}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7161,16 +7048,14 @@
       <c r="F2" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -7183,7 +7068,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -7196,7 +7081,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -7209,7 +7094,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -7222,7 +7107,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -7235,7 +7120,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -7248,7 +7133,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -7261,7 +7146,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -7274,7 +7159,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -7287,7 +7172,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -7300,39 +7185,28 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="C13" s="11">
         <v>0.05</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D13" s="11">
         <v>0.04</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E13" s="11">
         <v>0.01</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F13" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7343,12 +7217,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB4E384-0141-4E6D-9717-F8ED16E215B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F867BD-3A06-4811-BBDF-CAB95C06D53E}">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7403,16 +7277,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7425,7 +7297,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7438,7 +7310,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7451,7 +7323,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7464,7 +7336,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7477,7 +7349,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7490,7 +7362,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7503,7 +7375,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -7516,7 +7388,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -7529,7 +7401,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -7542,39 +7414,28 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="C13" s="12">
         <v>0.05</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D13" s="12">
         <v>0.04</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E13" s="12">
         <v>0.01</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F13" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7585,12 +7446,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46A079B-865C-4DF1-BC15-CD2AA6A60430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43953ED1-555E-44AB-A9E1-88B7AF79DB2D}">
   <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7645,16 +7506,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7667,7 +7526,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7680,7 +7539,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7693,7 +7552,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7706,7 +7565,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7719,7 +7578,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7732,7 +7591,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7745,7 +7604,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -7758,7 +7617,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -7771,7 +7630,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -7784,39 +7643,28 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="C13" s="12">
         <v>0.05</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D13" s="12">
         <v>0.04</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E13" s="12">
         <v>0.01</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F13" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7827,12 +7675,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5CFC29-92AA-4570-9745-958736192941}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FB656B-2881-4A56-AFE8-CDECE23C77F4}">
   <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7873,7 +7721,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -7887,16 +7735,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7909,7 +7755,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7922,7 +7768,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7935,7 +7781,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7948,7 +7794,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7961,7 +7807,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7974,7 +7820,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7987,7 +7833,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -8000,7 +7846,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -8013,7 +7859,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -8026,39 +7872,28 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="C13" s="12">
         <v>0.05</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D13" s="12">
         <v>0.04</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E13" s="12">
         <v>0.01</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F13" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8069,12 +7904,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01C507F-D745-481B-A316-26EEDC14567B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E88437-2F3C-4098-AC90-FC16A71F66CF}">
   <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8115,7 +7950,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -8129,16 +7964,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -8151,7 +7984,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -8164,7 +7997,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -8177,7 +8010,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -8190,7 +8023,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -8203,7 +8036,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -8216,7 +8049,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -8229,7 +8062,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -8242,7 +8075,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -8255,7 +8088,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -8268,39 +8101,28 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="C13" s="12">
         <v>0.05</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D13" s="12">
         <v>0.04</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E13" s="12">
         <v>0.01</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F13" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/外國語文學院.xlsx
+++ b/test/1. 各院彙整資料/外國語文學院.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C7197B-3D26-4FF8-8F46-84503A5AE069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C433779-7A21-42C8-9B93-06D4AC92F52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{3D2940B3-B07D-433D-8DD5-7ECE21953BE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{3D2940B3-B07D-433D-8DD5-7ECE21953BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$13</definedName>
@@ -53,10 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="41">
-  <si>
-    <t>外語學院</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="50">
   <si>
     <t>英文系</t>
   </si>
@@ -89,27 +83,6 @@
   </si>
   <si>
     <t>東南學</t>
-  </si>
-  <si>
-    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
-  </si>
-  <si>
-    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
-  </si>
-  <si>
-    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
-  </si>
-  <si>
-    <t>1.7.1.4 碩士班平均修業年限</t>
-  </si>
-  <si>
-    <t>2.1.1.2 平均碩博士班修課學生人數</t>
-  </si>
-  <si>
-    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
-  </si>
-  <si>
-    <t>3.2.1.1 舉辦國際學術研討會數</t>
   </si>
   <si>
     <t>科系</t>
@@ -186,6 +159,57 @@
   <si>
     <t>院加總</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外語學院</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.3.4</t>
+  </si>
+  <si>
+    <t>博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.7.1.4</t>
+  </si>
+  <si>
+    <t>碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>2.1.1.2</t>
+  </si>
+  <si>
+    <t>平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>舉辦國際學術研討會數</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>無資料。</t>
   </si>
 </sst>
 </file>
@@ -502,42 +526,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -547,19 +538,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4DF2-4313-B7DB-25BBE1A21F66}"/>
+              <c16:uniqueId val="{00000000-A39C-46FA-9690-8644D34E0079}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -596,42 +584,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -641,19 +596,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4DF2-4313-B7DB-25BBE1A21F66}"/>
+              <c16:uniqueId val="{00000001-A39C-46FA-9690-8644D34E0079}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -690,42 +642,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -735,19 +654,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4DF2-4313-B7DB-25BBE1A21F66}"/>
+              <c16:uniqueId val="{00000002-A39C-46FA-9690-8644D34E0079}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -811,7 +727,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -858,7 +778,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4DF2-4313-B7DB-25BBE1A21F66}"/>
+                  <c16:uniqueId val="{00000003-A39C-46FA-9690-8644D34E0079}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -867,7 +787,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -932,42 +856,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -977,12 +868,9 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,7 +878,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4DF2-4313-B7DB-25BBE1A21F66}"/>
+              <c16:uniqueId val="{00000004-A39C-46FA-9690-8644D34E0079}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1273,42 +1161,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1318,19 +1173,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E397-41A0-9F6F-7933589423B9}"/>
+              <c16:uniqueId val="{00000000-9E5B-4979-A2C0-84944AE7F3AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1367,42 +1219,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1412,19 +1231,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E397-41A0-9F6F-7933589423B9}"/>
+              <c16:uniqueId val="{00000001-9E5B-4979-A2C0-84944AE7F3AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1461,42 +1277,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1506,19 +1289,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E397-41A0-9F6F-7933589423B9}"/>
+              <c16:uniqueId val="{00000002-9E5B-4979-A2C0-84944AE7F3AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1582,7 +1362,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1629,7 +1413,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E397-41A0-9F6F-7933589423B9}"/>
+                  <c16:uniqueId val="{00000003-9E5B-4979-A2C0-84944AE7F3AF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1638,7 +1422,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1703,42 +1491,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1748,12 +1503,9 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1761,7 +1513,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E397-41A0-9F6F-7933589423B9}"/>
+              <c16:uniqueId val="{00000004-9E5B-4979-A2C0-84944AE7F3AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2044,42 +1796,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2089,19 +1808,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5BA9-4C12-A182-1AFFC72C2FD4}"/>
+              <c16:uniqueId val="{00000000-1E42-48AB-9CB1-7EDA78434595}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2138,42 +1854,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2183,19 +1866,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5BA9-4C12-A182-1AFFC72C2FD4}"/>
+              <c16:uniqueId val="{00000001-1E42-48AB-9CB1-7EDA78434595}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2232,42 +1912,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2277,19 +1924,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5BA9-4C12-A182-1AFFC72C2FD4}"/>
+              <c16:uniqueId val="{00000002-1E42-48AB-9CB1-7EDA78434595}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2353,7 +1997,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2400,7 +2048,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5BA9-4C12-A182-1AFFC72C2FD4}"/>
+                  <c16:uniqueId val="{00000003-1E42-48AB-9CB1-7EDA78434595}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2409,7 +2057,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2474,42 +2126,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2519,12 +2138,9 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,7 +2148,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5BA9-4C12-A182-1AFFC72C2FD4}"/>
+              <c16:uniqueId val="{00000004-1E42-48AB-9CB1-7EDA78434595}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2815,42 +2431,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2860,19 +2443,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D5E-4408-AE28-8B0E6DDC6BD4}"/>
+              <c16:uniqueId val="{00000000-A175-49E7-9D08-8E3A24FF3697}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2909,42 +2489,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2954,19 +2501,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D5E-4408-AE28-8B0E6DDC6BD4}"/>
+              <c16:uniqueId val="{00000001-A175-49E7-9D08-8E3A24FF3697}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3003,42 +2547,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3048,19 +2559,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1D5E-4408-AE28-8B0E6DDC6BD4}"/>
+              <c16:uniqueId val="{00000002-A175-49E7-9D08-8E3A24FF3697}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3124,7 +2632,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3171,7 +2683,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1D5E-4408-AE28-8B0E6DDC6BD4}"/>
+                  <c16:uniqueId val="{00000003-A175-49E7-9D08-8E3A24FF3697}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3180,7 +2692,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3245,42 +2761,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3290,12 +2773,9 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,7 +2783,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1D5E-4408-AE28-8B0E6DDC6BD4}"/>
+              <c16:uniqueId val="{00000004-A175-49E7-9D08-8E3A24FF3697}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3586,42 +3066,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3631,19 +3078,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1B34-46B7-B8D5-35B88F23CD22}"/>
+              <c16:uniqueId val="{00000000-DA71-49C1-9357-BED421653D68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3680,42 +3124,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3725,19 +3136,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1B34-46B7-B8D5-35B88F23CD22}"/>
+              <c16:uniqueId val="{00000001-DA71-49C1-9357-BED421653D68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3774,42 +3182,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3819,19 +3194,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1B34-46B7-B8D5-35B88F23CD22}"/>
+              <c16:uniqueId val="{00000002-DA71-49C1-9357-BED421653D68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3895,7 +3267,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3942,7 +3318,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1B34-46B7-B8D5-35B88F23CD22}"/>
+                  <c16:uniqueId val="{00000003-DA71-49C1-9357-BED421653D68}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3951,7 +3327,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4016,42 +3396,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4061,12 +3408,9 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4074,7 +3418,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1B34-46B7-B8D5-35B88F23CD22}"/>
+              <c16:uniqueId val="{00000004-DA71-49C1-9357-BED421653D68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4357,42 +3701,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4402,19 +3713,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C23-40D5-A1ED-C818DF67303E}"/>
+              <c16:uniqueId val="{00000000-0A9B-484A-BC9F-50B29B92A214}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4451,42 +3759,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4496,19 +3771,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9C23-40D5-A1ED-C818DF67303E}"/>
+              <c16:uniqueId val="{00000001-0A9B-484A-BC9F-50B29B92A214}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4545,42 +3817,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4590,19 +3829,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9C23-40D5-A1ED-C818DF67303E}"/>
+              <c16:uniqueId val="{00000002-0A9B-484A-BC9F-50B29B92A214}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4666,7 +3902,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4713,7 +3953,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9C23-40D5-A1ED-C818DF67303E}"/>
+                  <c16:uniqueId val="{00000003-0A9B-484A-BC9F-50B29B92A214}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4722,7 +3962,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4787,42 +4031,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4832,12 +4043,9 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4845,7 +4053,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9C23-40D5-A1ED-C818DF67303E}"/>
+              <c16:uniqueId val="{00000004-0A9B-484A-BC9F-50B29B92A214}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5128,42 +4336,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5173,19 +4348,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5910-46F5-8CE7-EE624713E37A}"/>
+              <c16:uniqueId val="{00000000-CB76-4AF0-8838-11650D935EDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5222,42 +4394,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5267,19 +4406,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5910-46F5-8CE7-EE624713E37A}"/>
+              <c16:uniqueId val="{00000001-CB76-4AF0-8838-11650D935EDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5316,42 +4452,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5361,19 +4464,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5910-46F5-8CE7-EE624713E37A}"/>
+              <c16:uniqueId val="{00000002-CB76-4AF0-8838-11650D935EDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5437,7 +4537,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5484,7 +4588,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5910-46F5-8CE7-EE624713E37A}"/>
+                  <c16:uniqueId val="{00000003-CB76-4AF0-8838-11650D935EDE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5493,7 +4597,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5558,42 +4666,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>英文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>阿文系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>斯語系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日文系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>韓文系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>土文系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>語言所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>歐語系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>英教碩</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>中東碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>東南學</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5603,12 +4678,9 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5616,7 +4688,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5910-46F5-8CE7-EE624713E37A}"/>
+              <c16:uniqueId val="{00000004-CB76-4AF0-8838-11650D935EDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5845,7 +4917,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A6C6FB-1F9F-4903-B99A-D7CAC5C8E1B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336B45BB-0661-4D1F-BD61-0ADA98756664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5878,7 +4950,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3B1E14-BBA5-4DBA-9CE2-96901A5AB182}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C55A0F-C9E0-42EE-96A7-A1D98073FBFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5911,7 +4983,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79A3771-D583-42DA-B218-1E7A753EACB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3784AE-2F03-498A-87E0-EFE4AF1FB1E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5944,7 +5016,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE716CC-205C-43D1-B90C-139AC01D54ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24CE686D-6536-4D25-9C35-10417310B480}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5977,7 +5049,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15229E1A-79CD-4004-8078-4C8E65ACAE33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA47BE3-991A-4465-8E50-42ACCBF6236B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6010,7 +5082,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D18390-6599-44C4-8C9F-8F897590C9EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20345E1-A132-486F-9167-A7415F7CCF28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6043,7 +5115,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1533BEA7-0E56-428A-8BE0-F5D214109C28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306575CE-D9FE-4B2D-BD29-63BD8965BB4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6064,72 +5136,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="主控台"/>
-      <sheetName val="template"/>
-      <sheetName val="test1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>三年均值</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>110年</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>109年</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>108年</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>科系1</v>
-          </cell>
-          <cell r="C2">
-            <v>0.06</v>
-          </cell>
-          <cell r="D2">
-            <v>0.06</v>
-          </cell>
-          <cell r="E2">
-            <v>0.03</v>
-          </cell>
-          <cell r="F2">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>院均值</v>
-          </cell>
-          <cell r="C3">
-            <v>0.05</v>
-          </cell>
-          <cell r="D3">
-            <v>0.04</v>
-          </cell>
-          <cell r="E3">
-            <v>0.01</v>
-          </cell>
-          <cell r="F3">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6427,115 +5433,195 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1061AD80-B079-4607-AF94-A03F1A7C9244}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6241C12-15E7-4AF9-A645-95506A6CA81E}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="7.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{472DCF8D-FFB4-473D-86BB-E5CB8079C9A4}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{67994E35-9462-4BF9-A6D2-A1B09D915C61}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{BEFDB76F-68A2-41AD-A671-D661D59B0E1C}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{3675FC0C-CAB6-41BC-84A7-04E38C8A9724}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{9DA512A5-4266-4E0F-B055-741680E5186C}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{154A249B-AE45-47C4-93B1-325D1D74788A}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{72591EE3-758C-4A13-80FB-C75021CDE342}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{448B4EC1-54B8-4036-8C8E-329F0A7DB2E4}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{17DE605A-DE23-4C4A-A955-4035BB3AEF7E}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{A5873A8E-EFB6-416F-970E-777564E11843}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{A9126E87-E8E4-4A42-977D-6B0BE97260F6}"/>
+    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{DFE10FC4-5B7E-40CD-B3AE-9D7242F728C9}"/>
+    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{A917F71B-C851-4A7B-845C-DE2FD4F2042F}"/>
+    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{C8479B48-E38C-4974-8827-609A89F0D4AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1098125A-B9D1-4E76-AD60-2AFAC2308882}">
-  <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAECA2D-A1D8-4951-BC11-0953E4DAC003}">
+  <sheetPr codeName="工作表1" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6548,209 +5634,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+      <c r="C13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6759,12 +5958,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDA51D1-2379-497E-BC8B-8676833F4F4F}">
-  <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AC7F4E-6087-4AD5-9168-05DA2E1E6D11}">
+  <sheetPr codeName="工作表2" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6777,209 +5976,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+      <c r="C13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6988,12 +6300,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C32638-B3DB-49B8-AA3C-9BC9521E8911}">
-  <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5444DB15-4719-4FD5-A83B-5870602BA3C7}">
+  <sheetPr codeName="工作表3" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7006,209 +6318,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+      <c r="C13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7217,12 +6642,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F867BD-3A06-4811-BBDF-CAB95C06D53E}">
-  <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB88B3C-F646-424E-B50C-106EDD97E51B}">
+  <sheetPr codeName="工作表4" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7235,209 +6660,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7446,12 +6984,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43953ED1-555E-44AB-A9E1-88B7AF79DB2D}">
-  <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C17032B-FC63-4F17-829B-B89B7E893B52}">
+  <sheetPr codeName="工作表5" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7464,209 +7002,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7675,12 +7326,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FB656B-2881-4A56-AFE8-CDECE23C77F4}">
-  <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E637DC-25C4-4498-AEED-3F6DA6D8C7C1}">
+  <sheetPr codeName="工作表6" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7693,209 +7344,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7904,12 +7668,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E88437-2F3C-4098-AC90-FC16A71F66CF}">
-  <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD19F674-B5C6-4C62-9773-B6D496FFF86F}">
+  <sheetPr codeName="工作表7" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7922,209 +7686,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test/1. 各院彙整資料/外國語文學院.xlsx
+++ b/test/1. 各院彙整資料/外國語文學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C433779-7A21-42C8-9B93-06D4AC92F52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65F6EF5-59C3-42B5-8F05-9B5F9FA619DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{3D2940B3-B07D-433D-8DD5-7ECE21953BE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{60BD8460-E2C7-4C3A-A84D-0EF964D38611}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
@@ -50,118 +50,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="60">
+  <si>
+    <t>500 外國語文學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>外語學院</t>
+  </si>
+  <si>
+    <t>501 英國語文學系</t>
+  </si>
   <si>
     <t>英文系</t>
+  </si>
+  <si>
+    <t>502 阿拉伯語文學系</t>
   </si>
   <si>
     <t>阿文系</t>
   </si>
   <si>
+    <t>504 斯拉夫語文學系</t>
+  </si>
+  <si>
     <t>斯語系</t>
+  </si>
+  <si>
+    <t>506 日本語文學系</t>
   </si>
   <si>
     <t>日文系</t>
   </si>
   <si>
+    <t>507 韓國語文學系</t>
+  </si>
+  <si>
     <t>韓文系</t>
+  </si>
+  <si>
+    <t>508 土耳其語文學系</t>
   </si>
   <si>
     <t>土文系</t>
   </si>
   <si>
+    <t>555 語言學研究所</t>
+  </si>
+  <si>
     <t>語言所</t>
+  </si>
+  <si>
+    <t>509 歐洲語文學系</t>
   </si>
   <si>
     <t>歐語系</t>
   </si>
   <si>
+    <t>951 英國語文學系英語教學碩士在職專班</t>
+  </si>
+  <si>
     <t>英教碩</t>
   </si>
   <si>
-    <t>中東碩</t>
+    <t>560 中東與中亞研究碩士學位學程</t>
   </si>
   <si>
-    <t>東南學</t>
-  </si>
-  <si>
-    <t>科系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡稱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>108年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序欄</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>院均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>500 外國語文學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>501 英國語文學系</t>
-  </si>
-  <si>
-    <t>502 阿拉伯語文學系</t>
-  </si>
-  <si>
-    <t>504 斯拉夫語文學系</t>
-  </si>
-  <si>
-    <t>506 日本語文學系</t>
-  </si>
-  <si>
-    <t>507 韓國語文學系</t>
-  </si>
-  <si>
-    <t>508 土耳其語文學系</t>
-  </si>
-  <si>
-    <t>555 語言學研究所</t>
-  </si>
-  <si>
-    <t>509 歐洲語文學系</t>
-  </si>
-  <si>
-    <t>951 英國語文學系英語教學碩士在職專班</t>
-  </si>
-  <si>
-    <t>560 中東與中亞研究碩士學位學程</t>
+    <t>中東碩</t>
   </si>
   <si>
     <t>510 東南亞語言與文化學士學位學程</t>
   </si>
   <si>
     <t>東南學</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>院加總</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>外語學院</t>
   </si>
   <si>
     <t>1.1.1.1</t>
@@ -206,21 +166,102 @@
     <t>舉辦國際學術研討會數</t>
   </si>
   <si>
-    <t>-</t>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>無資料。</t>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>108年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>院均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>東南學</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>小結 3</t>
+  </si>
+  <si>
+    <t>小結 2</t>
+  </si>
+  <si>
+    <t>小結 1</t>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為6.22%，低於院三年均值者計有3個系，為歐語系2.93%、東南學4.37%、日文系5.24%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為31,741，高於院三年均值者計有2個系，為日文系41,514、土文系40,982。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為5.88%，高於院三年均值者計有1個系，為語言所25%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為4.18，低於院三年均值者計有4個系，為斯語系3.33、韓文系3.6、中東碩3.67、日文系3.68。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為7.02，高於院三年均值者計有1個系，為英文系7.4。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總三年均值為2，包含英文系0.67、韓文系0.67、歐語系0.67。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總三年均值為3.33，包含英文系0.67、斯語系0.67、歐語系0.67、阿文系0.33、日文系0.33、韓文系0.33。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00%;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;&quot;—&quot;;&quot;—&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
+    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
+    <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -403,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,15 +479,27 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="3" xr:uid="{33258AF5-768F-403E-B063-D3AA2A6B4DCE}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{109369E6-19F8-4BE4-8F55-4ECB4CCC637E}"/>
-    <cellStyle name="百分比 2" xfId="4" xr:uid="{EE163F66-077B-4BDE-8806-C38BBD86D0D5}"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{E2F465B5-804A-45BA-B5B6-35D19E071960}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{95090025-BEFF-4C5C-BAF2-795057D628C3}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{F51D8C53-BBB8-4E1B-9D4D-6E7A086DD9F8}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,8 +579,32 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>東南學</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>土文系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -537,17 +614,41 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.9600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5800000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1084</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1351</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6299999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A39C-46FA-9690-8644D34E0079}"/>
+              <c16:uniqueId val="{00000000-D4B9-4934-9521-B1806DC4434D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -584,8 +685,32 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>東南學</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>土文系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -595,17 +720,41 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.4500000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1406</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A39C-46FA-9690-8644D34E0079}"/>
+              <c16:uniqueId val="{00000001-D4B9-4934-9521-B1806DC4434D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -642,8 +791,32 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>東南學</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>土文系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -653,17 +826,41 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.53E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.58E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4600000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A39C-46FA-9690-8644D34E0079}"/>
+              <c16:uniqueId val="{00000002-D4B9-4934-9521-B1806DC4434D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -778,7 +975,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A39C-46FA-9690-8644D34E0079}"/>
+                  <c16:uniqueId val="{00000003-D4B9-4934-9521-B1806DC4434D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -856,8 +1053,32 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>東南學</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>土文系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -867,10 +1088,34 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.93E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6699999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9100000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2199999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,7 +1123,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A39C-46FA-9690-8644D34E0079}"/>
+              <c16:uniqueId val="{00000004-D4B9-4934-9521-B1806DC4434D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -978,7 +1223,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1161,8 +1406,14 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1172,17 +1423,23 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="###%;###%;0%">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16669999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E5B-4979-A2C0-84944AE7F3AF}"/>
+              <c16:uniqueId val="{00000000-A91E-4917-B79D-3635FDDC9C69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1219,8 +1476,14 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1230,9 +1493,15 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1240,7 +1509,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9E5B-4979-A2C0-84944AE7F3AF}"/>
+              <c16:uniqueId val="{00000001-A91E-4917-B79D-3635FDDC9C69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1277,8 +1546,14 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1288,9 +1563,15 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1298,7 +1579,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9E5B-4979-A2C0-84944AE7F3AF}"/>
+              <c16:uniqueId val="{00000002-A91E-4917-B79D-3635FDDC9C69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1413,7 +1694,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9E5B-4979-A2C0-84944AE7F3AF}"/>
+                  <c16:uniqueId val="{00000003-A91E-4917-B79D-3635FDDC9C69}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1491,8 +1772,14 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1502,10 +1789,16 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="###%;###%;0%">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8799999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,7 +1806,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9E5B-4979-A2C0-84944AE7F3AF}"/>
+              <c16:uniqueId val="{00000004-A91E-4917-B79D-3635FDDC9C69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1613,7 +1906,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1796,8 +2089,41 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>土文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>東南學</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>英教碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>中東碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1807,17 +2133,50 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>38631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29579</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9615</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32024.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E42-48AB-9CB1-7EDA78434595}"/>
+              <c16:uniqueId val="{00000000-9AEF-4744-931E-A10FE829EE64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1854,8 +2213,41 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>土文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>東南學</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>英教碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>中東碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1865,17 +2257,50 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>42629.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42235.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35947.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31849.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31188.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38368.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24251.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13778.38</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32858.300000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E42-48AB-9CB1-7EDA78434595}"/>
+              <c16:uniqueId val="{00000001-9AEF-4744-931E-A10FE829EE64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1912,8 +2337,41 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>土文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>東南學</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>英教碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>中東碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1923,17 +2381,50 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>43088.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42095.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26873.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31322.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24923.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22809.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31840.560000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21386.26</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30604.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1E42-48AB-9CB1-7EDA78434595}"/>
+              <c16:uniqueId val="{00000002-9AEF-4744-931E-A10FE829EE64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2048,7 +2539,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1E42-48AB-9CB1-7EDA78434595}"/>
+                  <c16:uniqueId val="{00000003-9AEF-4744-931E-A10FE829EE64}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2126,8 +2617,41 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>土文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>東南學</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>英教碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>中東碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2137,10 +2661,43 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41513.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40982.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31582.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30656.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30213.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29745.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28801.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17185.580000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31741.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2148,7 +2705,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1E42-48AB-9CB1-7EDA78434595}"/>
+              <c16:uniqueId val="{00000004-9AEF-4744-931E-A10FE829EE64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2248,7 +2805,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2431,8 +2988,26 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中東碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2442,17 +3017,35 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,###;#,###;0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A175-49E7-9D08-8E3A24FF3697}"/>
+              <c16:uniqueId val="{00000000-4BC8-4F2B-BA53-BA048537B6C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2489,8 +3082,26 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中東碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2500,17 +3111,35 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A175-49E7-9D08-8E3A24FF3697}"/>
+              <c16:uniqueId val="{00000001-4BC8-4F2B-BA53-BA048537B6C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2547,8 +3176,26 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中東碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2558,17 +3205,35 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,###;#,###;0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,###;#,###;0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,###;#,###;0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A175-49E7-9D08-8E3A24FF3697}"/>
+              <c16:uniqueId val="{00000002-4BC8-4F2B-BA53-BA048537B6C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2683,7 +3348,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A175-49E7-9D08-8E3A24FF3697}"/>
+                  <c16:uniqueId val="{00000003-4BC8-4F2B-BA53-BA048537B6C1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2761,8 +3426,26 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中東碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2772,10 +3455,28 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,7 +3484,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A175-49E7-9D08-8E3A24FF3697}"/>
+              <c16:uniqueId val="{00000004-4BC8-4F2B-BA53-BA048537B6C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2883,7 +3584,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3066,8 +3767,26 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>中東碩</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3077,17 +3796,35 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>8.5299999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DA71-49C1-9357-BED421653D68}"/>
+              <c16:uniqueId val="{00000000-C82D-45E1-8F4E-F43433C3C365}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3124,8 +3861,26 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>中東碩</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3135,17 +3890,35 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,###;#,###;0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DA71-49C1-9357-BED421653D68}"/>
+              <c16:uniqueId val="{00000001-C82D-45E1-8F4E-F43433C3C365}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3182,8 +3955,26 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>中東碩</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3193,17 +3984,35 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DA71-49C1-9357-BED421653D68}"/>
+              <c16:uniqueId val="{00000002-C82D-45E1-8F4E-F43433C3C365}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3318,7 +4127,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-DA71-49C1-9357-BED421653D68}"/>
+                  <c16:uniqueId val="{00000003-C82D-45E1-8F4E-F43433C3C365}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3396,8 +4205,26 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>中東碩</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3407,10 +4234,28 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3418,7 +4263,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DA71-49C1-9357-BED421653D68}"/>
+              <c16:uniqueId val="{00000004-C82D-45E1-8F4E-F43433C3C365}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3518,7 +4363,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3701,8 +4546,35 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>土文系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>東南學</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3712,17 +4584,44 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A9B-484A-BC9F-50B29B92A214}"/>
+              <c16:uniqueId val="{00000000-99BD-487D-92D0-4155CEA6EAD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3759,8 +4658,35 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>土文系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>東南學</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3770,17 +4696,44 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0A9B-484A-BC9F-50B29B92A214}"/>
+              <c16:uniqueId val="{00000001-99BD-487D-92D0-4155CEA6EAD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3817,8 +4770,35 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>土文系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>東南學</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3828,17 +4808,44 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,###;#,###;0">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0A9B-484A-BC9F-50B29B92A214}"/>
+              <c16:uniqueId val="{00000002-99BD-487D-92D0-4155CEA6EAD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3953,7 +4960,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0A9B-484A-BC9F-50B29B92A214}"/>
+                  <c16:uniqueId val="{00000003-99BD-487D-92D0-4155CEA6EAD9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4031,8 +5038,35 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>土文系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>語言所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>東南學</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4042,10 +5076,37 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,###;#,###;0">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4053,7 +5114,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0A9B-484A-BC9F-50B29B92A214}"/>
+              <c16:uniqueId val="{00000004-99BD-487D-92D0-4155CEA6EAD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4153,7 +5214,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4336,8 +5397,26 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4347,17 +5426,35 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CB76-4AF0-8838-11650D935EDE}"/>
+              <c16:uniqueId val="{00000000-E3E5-4AAF-A075-054AD3564390}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4394,8 +5491,26 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4405,17 +5520,35 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CB76-4AF0-8838-11650D935EDE}"/>
+              <c16:uniqueId val="{00000001-E3E5-4AAF-A075-054AD3564390}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4452,8 +5585,26 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4463,17 +5614,35 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CB76-4AF0-8838-11650D935EDE}"/>
+              <c16:uniqueId val="{00000002-E3E5-4AAF-A075-054AD3564390}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4588,7 +5757,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CB76-4AF0-8838-11650D935EDE}"/>
+                  <c16:uniqueId val="{00000003-E3E5-4AAF-A075-054AD3564390}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4666,8 +5835,26 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>英文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>斯語系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>歐語系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>阿文系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>日文系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>韓文系</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4677,10 +5864,28 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4688,7 +5893,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CB76-4AF0-8838-11650D935EDE}"/>
+              <c16:uniqueId val="{00000004-E3E5-4AAF-A075-054AD3564390}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4788,7 +5993,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4917,7 +6122,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336B45BB-0661-4D1F-BD61-0ADA98756664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E71229-D388-47D2-BCB5-FF7F905CA655}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4950,7 +6155,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C55A0F-C9E0-42EE-96A7-A1D98073FBFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99241490-E240-4696-82C8-8DD14CA383F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4983,7 +6188,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3784AE-2F03-498A-87E0-EFE4AF1FB1E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD342AB5-AD8C-44AF-AFB0-BE184FB1F826}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5016,7 +6221,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24CE686D-6536-4D25-9C35-10417310B480}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF090B24-BD97-4E2B-B2DB-4FF270C0D217}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5049,7 +6254,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA47BE3-991A-4465-8E50-42ACCBF6236B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9954009A-A6EB-4858-A44F-4948B367B261}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5082,7 +6287,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20345E1-A132-486F-9167-A7415F7CCF28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6EE088C-CDEC-42B5-A9BB-816637790C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5115,7 +6320,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306575CE-D9FE-4B2D-BD29-63BD8965BB4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE03B64-3F22-4175-B7D3-E8324ABCE8EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5442,7 +6647,7 @@
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1061AD80-B079-4607-AF94-A03F1A7C9244}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{402E4B36-E286-4403-9338-CB1E19F27A92}">
   <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
   <we:alternateReferences>
     <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
@@ -5454,9 +6659,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6241C12-15E7-4AF9-A645-95506A6CA81E}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A399E99A-2B0B-43B2-A111-0E8B1ACFF515}">
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5470,484 +6675,838 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="12">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12">
+        <v>5</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="C5" s="12">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2</v>
+      </c>
+      <c r="I5" s="12">
+        <v>9</v>
+      </c>
+      <c r="J5" s="12">
+        <v>4</v>
+      </c>
+      <c r="K5" s="12">
+        <v>9</v>
+      </c>
+      <c r="L5" s="12">
+        <v>9</v>
+      </c>
+      <c r="M5" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="12">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="12">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="12">
+        <v>3</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="12">
+        <v>5.75</v>
+      </c>
+      <c r="D7" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>4.33</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2.67</v>
+      </c>
+      <c r="G7" s="12">
+        <v>4</v>
+      </c>
+      <c r="H7" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="I7" s="12">
+        <v>5</v>
+      </c>
+      <c r="J7" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="K7" s="12">
+        <v>9</v>
+      </c>
+      <c r="L7" s="12">
+        <v>6</v>
+      </c>
+      <c r="M7" s="12">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="12">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="12">
+        <v>4</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="12">
+        <v>6</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12">
+        <v>4</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="12">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4.38</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2.78</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3.33</v>
+      </c>
+      <c r="H10" s="12">
+        <v>3.62</v>
+      </c>
+      <c r="I10" s="12">
+        <v>4.67</v>
+      </c>
+      <c r="J10" s="12">
+        <v>2.12</v>
+      </c>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12">
+        <v>6</v>
+      </c>
+      <c r="M10" s="12">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>4</v>
+      </c>
+      <c r="G11" s="12">
+        <v>4</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="12">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D12" s="12">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3.96</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2.93</v>
+      </c>
+      <c r="G12" s="12">
+        <v>3.42</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3.62</v>
+      </c>
+      <c r="I12" s="12">
+        <v>4.67</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1.94</v>
+      </c>
+      <c r="K12" s="12">
+        <v>9</v>
+      </c>
+      <c r="L12" s="12">
+        <v>6</v>
+      </c>
+      <c r="M12" s="12">
+        <v>4.75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{448B4EC1-54B8-4036-8C8E-329F0A7DB2E4}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{17DE605A-DE23-4C4A-A955-4035BB3AEF7E}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{A5873A8E-EFB6-416F-970E-777564E11843}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{A9126E87-E8E4-4A42-977D-6B0BE97260F6}"/>
-    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{DFE10FC4-5B7E-40CD-B3AE-9D7242F728C9}"/>
-    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{A917F71B-C851-4A7B-845C-DE2FD4F2042F}"/>
-    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{C8479B48-E38C-4974-8827-609A89F0D4AF}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{FE39B417-F156-4031-95FD-A389EE8A141C}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{85935658-49EA-40FD-B7C9-4D6B4FB4F7E8}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{126E6F44-6B54-4589-92D5-9E64B2C3A522}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{6F8EC5F1-42AA-4BC7-88E2-2F0F1F111C14}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{5594A46F-0C10-402E-B41B-C52A1BA8B889}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{91BC9B0A-C0B6-4D1E-94B8-78FD8B56CDC9}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{F9768DA5-7400-451E-A841-61735F870AED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAECA2D-A1D8-4951-BC11-0953E4DAC003}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E424CB8D-D979-4FAA-90EE-692C7728C213}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2.93E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2.53E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="13">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>4.58E-2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>5.21E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="D7" s="13">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.1186</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.1134</v>
+      </c>
+      <c r="D8" s="13">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.1406</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.1084</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.1047</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.1351</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="13">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="D10" s="13">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F10" s="13">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="G10" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5958,338 +7517,340 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AC7F4E-6087-4AD5-9168-05DA2E1E6D11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CD6534-FA6C-4562-B74F-F54A7FB33676}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="13">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="G4" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6300,338 +7861,338 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5444DB15-4719-4FD5-A83B-5870602BA3C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2227623C-6A7C-4199-88B7-D8C6A6BEE754}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11">
+        <v>41513.75</v>
+      </c>
+      <c r="D2" s="11">
+        <v>43088.94</v>
+      </c>
+      <c r="E2" s="11">
+        <v>42629.7</v>
+      </c>
+      <c r="F2" s="11">
+        <v>38631</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11">
+        <v>40982.21</v>
+      </c>
+      <c r="D3" s="11">
+        <v>42095.79</v>
+      </c>
+      <c r="E3" s="11">
+        <v>42235.42</v>
+      </c>
+      <c r="F3" s="11">
+        <v>38309</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
+        <v>31582.33</v>
+      </c>
+      <c r="D4" s="11">
+        <v>26873.47</v>
+      </c>
+      <c r="E4" s="11">
+        <v>35947.800000000003</v>
+      </c>
+      <c r="F4" s="11">
+        <v>31635</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="11">
+        <v>30656.15</v>
+      </c>
+      <c r="D5" s="11">
+        <v>31322.16</v>
+      </c>
+      <c r="E5" s="11">
+        <v>31849.83</v>
+      </c>
+      <c r="F5" s="11">
+        <v>28966</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11">
+        <v>30213.66</v>
+      </c>
+      <c r="D6" s="11">
+        <v>24923.95</v>
+      </c>
+      <c r="E6" s="11">
+        <v>31188.86</v>
+      </c>
+      <c r="F6" s="11">
+        <v>34905</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11">
+        <v>29745.63</v>
+      </c>
+      <c r="D7" s="11">
+        <v>22809.59</v>
+      </c>
+      <c r="E7" s="11">
+        <v>38368.03</v>
+      </c>
+      <c r="F7" s="11">
+        <v>31702</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11">
+        <v>28801.599999999999</v>
+      </c>
+      <c r="D8" s="11">
+        <v>31840.560000000001</v>
+      </c>
+      <c r="E8" s="11">
+        <v>24251.24</v>
+      </c>
+      <c r="F8" s="11">
+        <v>29579</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="11">
+        <v>17185.580000000002</v>
+      </c>
+      <c r="D9" s="11">
+        <v>21386.26</v>
+      </c>
+      <c r="E9" s="11">
+        <v>13778.38</v>
+      </c>
+      <c r="F9" s="11">
+        <v>9615</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="11">
+        <v>31741.32</v>
+      </c>
+      <c r="D13" s="11">
+        <v>30604.86</v>
+      </c>
+      <c r="E13" s="11">
+        <v>32858.300000000003</v>
+      </c>
+      <c r="F13" s="11">
+        <v>32024.58</v>
+      </c>
+      <c r="G13" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6642,338 +8203,338 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB88B3C-F646-424E-B50C-106EDD97E51B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824EC080-92DA-49D9-A35A-C193148A69C5}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="15">
+        <v>3.33</v>
+      </c>
+      <c r="D2" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="E2" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="F2" s="16">
+        <v>2</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="D3" s="15">
+        <v>3.25</v>
+      </c>
+      <c r="E3" s="16">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3.67</v>
+      </c>
+      <c r="D4" s="16">
+        <v>4</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3.68</v>
+      </c>
+      <c r="D5" s="16">
+        <v>4</v>
+      </c>
+      <c r="E5" s="15">
+        <v>3.71</v>
+      </c>
+      <c r="F5" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4.29</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D7" s="16">
+        <v>6</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4.75</v>
+      </c>
+      <c r="F7" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="15">
+        <v>4.18</v>
+      </c>
+      <c r="D8" s="15">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="E8" s="15">
+        <v>4.29</v>
+      </c>
+      <c r="F8" s="15">
+        <v>3.85</v>
+      </c>
+      <c r="G8" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6984,338 +8545,338 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C17032B-FC63-4F17-829B-B89B7E893B52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E173C0-FADC-40A9-A600-A908CA39C29E}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="D2" s="15">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E2" s="15">
+        <v>6.85</v>
+      </c>
+      <c r="F2" s="15">
+        <v>5.48</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15">
+        <v>6.64</v>
+      </c>
+      <c r="D3" s="15">
+        <v>6.56</v>
+      </c>
+      <c r="E3" s="15">
+        <v>7.38</v>
+      </c>
+      <c r="F3" s="16">
+        <v>6</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="15">
+        <v>6.11</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5.33</v>
+      </c>
+      <c r="E4" s="16">
+        <v>8</v>
+      </c>
+      <c r="F4" s="15">
+        <v>5.75</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D5" s="15">
+        <v>6.45</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4.42</v>
+      </c>
+      <c r="F5" s="15">
+        <v>4.05</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="15">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="D6" s="15">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F6" s="15">
+        <v>4.58</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="15">
+        <v>3.53</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E7" s="15">
+        <v>3.07</v>
+      </c>
+      <c r="F7" s="16">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="15">
+        <v>7.02</v>
+      </c>
+      <c r="D8" s="15">
+        <v>6.74</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5.76</v>
+      </c>
+      <c r="F8" s="15">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="G8" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7326,338 +8887,339 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E637DC-25C4-4498-AEED-3F6DA6D8C7C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D583E45-EC0E-4465-A755-C2E53B97AE61}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="16">
+        <v>2</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7668,338 +9230,339 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD19F674-B5C6-4C62-9773-B6D496FFF86F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A22068-29FD-4D81-883C-0CB1384DC990}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3.33</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16">
+        <v>6</v>
+      </c>
+      <c r="G8" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/外國語文學院.xlsx
+++ b/test/1. 各院彙整資料/外國語文學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65F6EF5-59C3-42B5-8F05-9B5F9FA619DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022FFDCB-F4AE-4F47-BBB1-287D7753130F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{60BD8460-E2C7-4C3A-A84D-0EF964D38611}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{60BD8460-E2C7-4C3A-A84D-0EF964D38611}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
@@ -212,42 +212,34 @@
     <t>小結 3</t>
   </si>
   <si>
-    <t>小結 2</t>
+    <t>平均 1</t>
   </si>
   <si>
-    <t>小結 1</t>
+    <t>平均 2</t>
   </si>
   <si>
     <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為6.22%，低於院三年均值者計有3個系，為歐語系2.93%、東南學4.37%、日文系5.24%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為5.88%，高於院三年均值者計有1個系，為語言所25%。</t>
   </si>
   <si>
     <t>院三年均值為31,741，高於院三年均值者計有2個系，為日文系41,514、土文系40,982。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院三年均值為5.88%，高於院三年均值者計有1個系，為語言所25%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為4.18，低於院三年均值者計有4個系，為斯語系3.33、韓文系3.6、中東碩3.67、日文系3.68。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為7.02，高於院三年均值者計有1個系，為英文系7.4。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院加總三年均值為2，包含英文系0.67、韓文系0.67、歐語系0.67。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院加總三年均值為3.33，包含英文系0.67、斯語系0.67、歐語系0.67、阿文系0.33、日文系0.33、韓文系0.33。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -256,10 +248,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
-    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
-    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="177" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="178" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="179" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="180" formatCode="#,##0;\-#,###;0"/>
     <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
     <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
@@ -479,9 +471,6 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,6 +481,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,7 +640,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D4B9-4934-9521-B1806DC4434D}"/>
+              <c16:uniqueId val="{00000000-C2A1-48F9-81E3-80081A3252E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -754,7 +746,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D4B9-4934-9521-B1806DC4434D}"/>
+              <c16:uniqueId val="{00000001-C2A1-48F9-81E3-80081A3252E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -860,7 +852,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D4B9-4934-9521-B1806DC4434D}"/>
+              <c16:uniqueId val="{00000002-C2A1-48F9-81E3-80081A3252E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -918,7 +910,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="8"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -973,9 +965,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D4B9-4934-9521-B1806DC4434D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1123,7 +1112,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D4B9-4934-9521-B1806DC4434D}"/>
+              <c16:uniqueId val="{00000004-C2A1-48F9-81E3-80081A3252E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1439,7 +1428,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A91E-4917-B79D-3635FDDC9C69}"/>
+              <c16:uniqueId val="{00000000-D4BE-4E5C-ACBC-4A04243C6E8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1509,7 +1498,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A91E-4917-B79D-3635FDDC9C69}"/>
+              <c16:uniqueId val="{00000001-D4BE-4E5C-ACBC-4A04243C6E8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1579,7 +1568,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A91E-4917-B79D-3635FDDC9C69}"/>
+              <c16:uniqueId val="{00000002-D4BE-4E5C-ACBC-4A04243C6E8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1637,7 +1626,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="2"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1692,9 +1681,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A91E-4917-B79D-3635FDDC9C69}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1806,7 +1792,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A91E-4917-B79D-3635FDDC9C69}"/>
+              <c16:uniqueId val="{00000004-D4BE-4E5C-ACBC-4A04243C6E8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2176,7 +2162,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9AEF-4744-931E-A10FE829EE64}"/>
+              <c16:uniqueId val="{00000000-7405-4E24-9666-ADB2974528C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2300,7 +2286,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9AEF-4744-931E-A10FE829EE64}"/>
+              <c16:uniqueId val="{00000001-7405-4E24-9666-ADB2974528C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2424,7 +2410,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9AEF-4744-931E-A10FE829EE64}"/>
+              <c16:uniqueId val="{00000002-7405-4E24-9666-ADB2974528C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2482,7 +2468,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="11"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2537,9 +2523,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9AEF-4744-931E-A10FE829EE64}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2705,7 +2688,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9AEF-4744-931E-A10FE829EE64}"/>
+              <c16:uniqueId val="{00000004-7405-4E24-9666-ADB2974528C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3045,7 +3028,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4BC8-4F2B-BA53-BA048537B6C1}"/>
+              <c16:uniqueId val="{00000000-0CDF-4DD3-B412-BBA9A503890D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3139,7 +3122,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4BC8-4F2B-BA53-BA048537B6C1}"/>
+              <c16:uniqueId val="{00000001-0CDF-4DD3-B412-BBA9A503890D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3233,7 +3216,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4BC8-4F2B-BA53-BA048537B6C1}"/>
+              <c16:uniqueId val="{00000002-0CDF-4DD3-B412-BBA9A503890D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3291,7 +3274,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="6"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3346,9 +3329,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4BC8-4F2B-BA53-BA048537B6C1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3484,7 +3464,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4BC8-4F2B-BA53-BA048537B6C1}"/>
+              <c16:uniqueId val="{00000004-0CDF-4DD3-B412-BBA9A503890D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3824,7 +3804,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C82D-45E1-8F4E-F43433C3C365}"/>
+              <c16:uniqueId val="{00000000-D8E8-4944-A269-00D710603152}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3918,7 +3898,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C82D-45E1-8F4E-F43433C3C365}"/>
+              <c16:uniqueId val="{00000001-D8E8-4944-A269-00D710603152}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4012,7 +3992,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C82D-45E1-8F4E-F43433C3C365}"/>
+              <c16:uniqueId val="{00000002-D8E8-4944-A269-00D710603152}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4070,7 +4050,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="6"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4125,9 +4105,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C82D-45E1-8F4E-F43433C3C365}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4263,7 +4240,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C82D-45E1-8F4E-F43433C3C365}"/>
+              <c16:uniqueId val="{00000004-D8E8-4944-A269-00D710603152}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4621,7 +4598,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99BD-487D-92D0-4155CEA6EAD9}"/>
+              <c16:uniqueId val="{00000000-F7C3-4041-AB0D-43307CCCA967}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4733,7 +4710,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-99BD-487D-92D0-4155CEA6EAD9}"/>
+              <c16:uniqueId val="{00000001-F7C3-4041-AB0D-43307CCCA967}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4845,7 +4822,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-99BD-487D-92D0-4155CEA6EAD9}"/>
+              <c16:uniqueId val="{00000002-F7C3-4041-AB0D-43307CCCA967}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4903,7 +4880,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="9"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4958,9 +4935,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-99BD-487D-92D0-4155CEA6EAD9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5114,7 +5088,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-99BD-487D-92D0-4155CEA6EAD9}"/>
+              <c16:uniqueId val="{00000004-F7C3-4041-AB0D-43307CCCA967}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5454,7 +5428,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E3E5-4AAF-A075-054AD3564390}"/>
+              <c16:uniqueId val="{00000000-C314-47CD-AF24-322163BDAEBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5548,7 +5522,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E3E5-4AAF-A075-054AD3564390}"/>
+              <c16:uniqueId val="{00000001-C314-47CD-AF24-322163BDAEBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5642,7 +5616,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E3E5-4AAF-A075-054AD3564390}"/>
+              <c16:uniqueId val="{00000002-C314-47CD-AF24-322163BDAEBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5700,7 +5674,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="6"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -5755,9 +5729,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E3E5-4AAF-A075-054AD3564390}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5893,7 +5864,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E3E5-4AAF-A075-054AD3564390}"/>
+              <c16:uniqueId val="{00000004-C314-47CD-AF24-322163BDAEBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6122,7 +6093,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E71229-D388-47D2-BCB5-FF7F905CA655}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD3FF6C-7E74-409E-9A5A-3A1CFB0830CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6155,7 +6126,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99241490-E240-4696-82C8-8DD14CA383F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986A4476-3307-4A21-A70C-03826C6C5CB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6188,7 +6159,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD342AB5-AD8C-44AF-AFB0-BE184FB1F826}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F3E34B-41DD-45B6-8940-9BCD69F332D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6221,7 +6192,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF090B24-BD97-4E2B-B2DB-4FF270C0D217}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF187E9-D50E-4879-9529-5D1D10E65D15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6254,7 +6225,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9954009A-A6EB-4858-A44F-4948B367B261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD15EF6-D96A-4AF9-8A48-1649E7407FAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6287,7 +6258,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6EE088C-CDEC-42B5-A9BB-816637790C62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7926C536-F96A-425B-9946-ED8AB7C38784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6320,7 +6291,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE03B64-3F22-4175-B7D3-E8324ABCE8EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EFEC7A-26FD-4CFB-BF43-6FBBFB50CCB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6756,37 +6727,37 @@
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="16">
         <v>8</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="16">
         <v>6</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="16">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="16">
         <v>3</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="16">
         <v>4</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="16">
         <v>5</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="I3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="16">
         <v>1</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="12">
+      <c r="K3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="16">
         <v>2</v>
       </c>
     </row>
@@ -6797,37 +6768,37 @@
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="D4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="16">
         <v>1</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="J4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6838,37 +6809,37 @@
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="16">
         <v>7</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
         <v>3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="16">
         <v>5</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="16">
         <v>6</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="16">
         <v>2</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="16">
         <v>9</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <v>9</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="16">
         <v>9</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="16">
         <v>8</v>
       </c>
     </row>
@@ -6879,37 +6850,37 @@
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>6</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="16">
         <v>1</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="16">
         <v>4</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="16">
         <v>2</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="12">
+      <c r="H6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="16">
         <v>5</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="J6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="16">
         <v>3</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6918,39 +6889,39 @@
         <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="12">
+        <v>50</v>
+      </c>
+      <c r="C7" s="16">
         <v>5.75</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="16">
         <v>4.5</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="16">
         <v>4.33</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="16">
         <v>2.67</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="16">
         <v>4</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="16">
         <v>3.5</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="16">
         <v>5</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="16">
         <v>2.5</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="16">
         <v>9</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="16">
         <v>6</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="16">
         <v>5</v>
       </c>
     </row>
@@ -6961,37 +6932,37 @@
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="16">
         <v>5</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="16">
         <v>2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="16">
         <v>3</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="H8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="16">
         <v>4</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="J8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="16">
         <v>6</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7002,37 +6973,37 @@
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="16">
         <v>4</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <v>4</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="16">
         <v>4</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="16">
         <v>1</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="16">
         <v>4</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="16">
         <v>4</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="16">
         <v>1</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="12">
+      <c r="K9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="16">
         <v>4</v>
       </c>
     </row>
@@ -7041,39 +7012,39 @@
         <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="12">
+        <v>51</v>
+      </c>
+      <c r="C10" s="16">
         <v>4.3899999999999997</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="16">
         <v>4.38</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="16">
         <v>4.3899999999999997</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="16">
         <v>2.78</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="16">
         <v>3.33</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="16">
         <v>3.62</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="16">
         <v>4.67</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="16">
         <v>2.12</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="16">
         <v>9</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="16">
         <v>6</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="16">
         <v>4.75</v>
       </c>
     </row>
@@ -7084,37 +7055,37 @@
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="16">
         <v>4</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="16">
         <v>1</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="16">
         <v>4</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="16">
         <v>4</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="12">
+      <c r="H11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="16">
         <v>1</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="12" t="s">
+      <c r="K11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7125,57 +7096,57 @@
       <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <v>4.0199999999999996</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="16">
         <v>4.3099999999999996</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>3.96</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="16">
         <v>2.93</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="16">
         <v>3.42</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="16">
         <v>3.62</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="16">
         <v>4.67</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="16">
         <v>1.94</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="16">
         <v>9</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="16">
         <v>6</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="16">
         <v>4.75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{FE39B417-F156-4031-95FD-A389EE8A141C}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{85935658-49EA-40FD-B7C9-4D6B4FB4F7E8}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{126E6F44-6B54-4589-92D5-9E64B2C3A522}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{6F8EC5F1-42AA-4BC7-88E2-2F0F1F111C14}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{5594A46F-0C10-402E-B41B-C52A1BA8B889}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{91BC9B0A-C0B6-4D1E-94B8-78FD8B56CDC9}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{F9768DA5-7400-451E-A841-61735F870AED}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{0B4A05E9-0B55-4433-B87F-592B6EF6CDCA}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{58702BB2-3D36-4337-AFF6-2C6A67CBC537}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{912EBBD0-9507-44A1-81D3-7F88AA0BA651}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{01007489-D25A-48EC-9471-D1812AB0B64E}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{E952A40F-A372-463F-89BE-00069DC2F601}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{977FC2C9-5609-46AB-B1C8-CC6C175F0259}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{7CDCC135-B25D-4BC1-AC64-71F3893FE488}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E424CB8D-D979-4FAA-90EE-692C7728C213}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA72BA4-C11B-4730-BF60-BC6712BA1B18}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -7226,16 +7197,16 @@
       <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>2.93E-2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>2.53E-2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="G2" s="9">
@@ -7249,16 +7220,16 @@
       <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>4.58E-2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="G3" s="9">
@@ -7272,16 +7243,16 @@
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>5.21E-2</v>
       </c>
       <c r="G4" s="9">
@@ -7295,16 +7266,16 @@
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>8.5699999999999998E-2</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>8.6199999999999999E-2</v>
       </c>
       <c r="G5" s="9">
@@ -7318,16 +7289,16 @@
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>8.4699999999999998E-2</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>7.5800000000000006E-2</v>
       </c>
       <c r="G6" s="9">
@@ -7341,16 +7312,16 @@
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>9.5500000000000002E-2</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>0.1186</v>
       </c>
       <c r="G7" s="9">
@@ -7364,16 +7335,16 @@
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>0.1134</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>9.8900000000000002E-2</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>0.1406</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <v>0.1084</v>
       </c>
       <c r="G8" s="9">
@@ -7387,16 +7358,16 @@
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>0.13239999999999999</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>0.1047</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>0.16950000000000001</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>0.1351</v>
       </c>
       <c r="G9" s="9">
@@ -7410,16 +7381,16 @@
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>6.6299999999999998E-2</v>
       </c>
       <c r="G10" s="9">
@@ -7433,16 +7404,16 @@
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -7456,16 +7427,16 @@
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -7479,16 +7450,16 @@
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -7506,7 +7477,7 @@
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7517,7 +7488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CD6534-FA6C-4562-B74F-F54A7FB33676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024DBE41-2483-4131-831C-A668020BB84D}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -7529,9 +7500,9 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7560,7 +7531,7 @@
         <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7570,16 +7541,16 @@
       <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <v>0.25</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>0</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <v>1</v>
       </c>
       <c r="G2" s="9">
@@ -7593,16 +7564,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>0</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>0</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>0</v>
       </c>
       <c r="G3" s="9">
@@ -7616,16 +7587,16 @@
       <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>0</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>0.16669999999999999</v>
       </c>
       <c r="G4" s="9">
@@ -7639,16 +7610,16 @@
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -7662,16 +7633,16 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -7685,16 +7656,16 @@
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -7708,16 +7679,16 @@
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -7731,16 +7702,16 @@
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -7754,16 +7725,16 @@
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -7777,16 +7748,16 @@
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -7800,16 +7771,16 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -7823,16 +7794,16 @@
       <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -7850,7 +7821,7 @@
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7861,7 +7832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2227623C-6A7C-4199-88B7-D8C6A6BEE754}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9092B3B1-ACD8-4CDA-9223-7EBDBC2B1850}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -7873,7 +7844,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7902,7 +7873,7 @@
         <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7912,16 +7883,16 @@
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <v>41513.75</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="13">
         <v>43088.94</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="13">
         <v>42629.7</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="13">
         <v>38631</v>
       </c>
       <c r="G2" s="9">
@@ -7935,16 +7906,16 @@
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>40982.21</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>42095.79</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <v>42235.42</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="13">
         <v>38309</v>
       </c>
       <c r="G3" s="9">
@@ -7958,16 +7929,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>31582.33</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>26873.47</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="13">
         <v>35947.800000000003</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <v>31635</v>
       </c>
       <c r="G4" s="9">
@@ -7981,16 +7952,16 @@
       <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>30656.15</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>31322.16</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="13">
         <v>31849.83</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <v>28966</v>
       </c>
       <c r="G5" s="9">
@@ -8004,16 +7975,16 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <v>30213.66</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="13">
         <v>24923.95</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="13">
         <v>31188.86</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="13">
         <v>34905</v>
       </c>
       <c r="G6" s="9">
@@ -8027,16 +7998,16 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>29745.63</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>22809.59</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="13">
         <v>38368.03</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>31702</v>
       </c>
       <c r="G7" s="9">
@@ -8050,16 +8021,16 @@
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="13">
         <v>28801.599999999999</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="13">
         <v>31840.560000000001</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="13">
         <v>24251.24</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="13">
         <v>29579</v>
       </c>
       <c r="G8" s="9">
@@ -8073,16 +8044,16 @@
       <c r="B9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <v>17185.580000000002</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="13">
         <v>21386.26</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="13">
         <v>13778.38</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="13">
         <v>9615</v>
       </c>
       <c r="G9" s="9">
@@ -8096,16 +8067,16 @@
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <v>0</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="9">
@@ -8119,16 +8090,16 @@
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <v>0</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="9">
@@ -8142,16 +8113,16 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <v>0</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9">
@@ -8165,16 +8136,16 @@
       <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>31741.32</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="13">
         <v>30604.86</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="13">
         <v>32858.300000000003</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="13">
         <v>32024.58</v>
       </c>
       <c r="G13" s="9">
@@ -8203,7 +8174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824EC080-92DA-49D9-A35A-C193148A69C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FB033B-5F10-4675-9839-7882541B23D5}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -8215,7 +8186,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -8254,16 +8225,16 @@
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>3.33</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>3.5</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>3.5</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>2</v>
       </c>
       <c r="G2" s="9">
@@ -8277,16 +8248,16 @@
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>3.6</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>3.25</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>3</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>3.8</v>
       </c>
       <c r="G3" s="9">
@@ -8300,16 +8271,16 @@
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>3.67</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>4</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>3.8</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>2</v>
       </c>
       <c r="G4" s="9">
@@ -8323,16 +8294,16 @@
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>3.68</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>4</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>3.71</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>3.4</v>
       </c>
       <c r="G5" s="9">
@@ -8346,16 +8317,16 @@
       <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>4.2</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>5.2</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>4.29</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>3.5</v>
       </c>
       <c r="G6" s="9">
@@ -8369,16 +8340,16 @@
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>4.6500000000000004</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>6</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>4.75</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>4.0999999999999996</v>
       </c>
       <c r="G7" s="9">
@@ -8392,16 +8363,16 @@
       <c r="B8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>4.18</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>4.6500000000000004</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>4.29</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>3.85</v>
       </c>
       <c r="G8" s="9">
@@ -8415,16 +8386,16 @@
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -8438,16 +8409,16 @@
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -8461,16 +8432,16 @@
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -8484,16 +8455,16 @@
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -8507,16 +8478,16 @@
       <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -8534,7 +8505,7 @@
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8545,7 +8516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E173C0-FADC-40A9-A600-A908CA39C29E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87963E71-2006-45AC-B568-DAC62417509A}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -8557,7 +8528,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -8596,16 +8567,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>7.4</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>9.9600000000000009</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>6.85</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>5.48</v>
       </c>
       <c r="G2" s="9">
@@ -8619,16 +8590,16 @@
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>6.64</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>6.56</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>7.38</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>6</v>
       </c>
       <c r="G3" s="9">
@@ -8642,16 +8613,16 @@
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>6.11</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>5.33</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>8</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>5.75</v>
       </c>
       <c r="G4" s="9">
@@ -8665,16 +8636,16 @@
       <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>6.45</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>4.42</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>4.05</v>
       </c>
       <c r="G5" s="9">
@@ -8688,16 +8659,16 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>4.7300000000000004</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>4.7300000000000004</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>4.8499999999999996</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>4.58</v>
       </c>
       <c r="G6" s="9">
@@ -8711,16 +8682,16 @@
       <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>3.53</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>3.07</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>5</v>
       </c>
       <c r="G7" s="9">
@@ -8734,16 +8705,16 @@
       <c r="B8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>7.02</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>6.74</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>5.76</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>8.5299999999999994</v>
       </c>
       <c r="G8" s="9">
@@ -8757,16 +8728,16 @@
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -8780,16 +8751,16 @@
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -8803,16 +8774,16 @@
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -8826,16 +8797,16 @@
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -8849,16 +8820,16 @@
       <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -8876,7 +8847,7 @@
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8887,7 +8858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D583E45-EC0E-4465-A755-C2E53B97AE61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB1B3AA-1429-401A-875A-577AFF4D802E}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -8899,8 +8870,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -8939,16 +8909,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.67</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>1</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>0</v>
       </c>
       <c r="G2" s="9">
@@ -8962,16 +8932,16 @@
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>0.67</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>1</v>
       </c>
       <c r="G3" s="9">
@@ -8985,16 +8955,16 @@
       <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>0.67</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>0</v>
       </c>
       <c r="G4" s="9">
@@ -9008,16 +8978,16 @@
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>0</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>0</v>
       </c>
       <c r="G5" s="9">
@@ -9031,16 +9001,16 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>0</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>0</v>
       </c>
       <c r="G6" s="9">
@@ -9054,16 +9024,16 @@
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>0</v>
       </c>
       <c r="G7" s="9">
@@ -9077,16 +9047,16 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>0</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>0</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>0</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>0</v>
       </c>
       <c r="G8" s="9">
@@ -9100,16 +9070,16 @@
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>0</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>0</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>0</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>0</v>
       </c>
       <c r="G9" s="9">
@@ -9123,16 +9093,16 @@
       <c r="B10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>0</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>0</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>0</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>0</v>
       </c>
       <c r="G10" s="9">
@@ -9146,16 +9116,16 @@
       <c r="B11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>2</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>2</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>3</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>1</v>
       </c>
       <c r="G11" s="9">
@@ -9169,16 +9139,16 @@
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -9192,16 +9162,16 @@
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -9219,7 +9189,7 @@
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9230,7 +9200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A22068-29FD-4D81-883C-0CB1384DC990}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C231EF1-AA7E-4A44-9A1A-66859D641D18}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -9242,8 +9212,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -9282,16 +9251,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.67</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>1</v>
       </c>
       <c r="G2" s="9">
@@ -9305,16 +9274,16 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>0.67</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>1</v>
       </c>
       <c r="G3" s="9">
@@ -9328,16 +9297,16 @@
       <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>0.67</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>0</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>1</v>
       </c>
       <c r="G4" s="9">
@@ -9351,16 +9320,16 @@
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0.33</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>0</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
       <c r="G5" s="9">
@@ -9374,16 +9343,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>0.33</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>0</v>
       </c>
       <c r="G6" s="9">
@@ -9397,16 +9366,16 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0.33</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
       <c r="G7" s="9">
@@ -9420,16 +9389,16 @@
       <c r="B8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>3.33</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>3</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>6</v>
       </c>
       <c r="G8" s="9">
@@ -9443,16 +9412,16 @@
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -9466,16 +9435,16 @@
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -9489,16 +9458,16 @@
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -9512,16 +9481,16 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -9535,16 +9504,16 @@
       <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -9562,7 +9531,7 @@
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/外國語文學院.xlsx
+++ b/test/1. 各院彙整資料/外國語文學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022FFDCB-F4AE-4F47-BBB1-287D7753130F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D48B6F-BC3C-4F54-B0BD-A9F066646D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{60BD8460-E2C7-4C3A-A84D-0EF964D38611}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{60BD8460-E2C7-4C3A-A84D-0EF964D38611}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="114" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="115" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="116" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="117" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="118" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="119" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="120" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
@@ -640,7 +640,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C2A1-48F9-81E3-80081A3252E3}"/>
+              <c16:uniqueId val="{00000000-ED4F-454F-9788-63924AE804A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -746,7 +746,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C2A1-48F9-81E3-80081A3252E3}"/>
+              <c16:uniqueId val="{00000001-ED4F-454F-9788-63924AE804A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -852,7 +852,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C2A1-48F9-81E3-80081A3252E3}"/>
+              <c16:uniqueId val="{00000002-ED4F-454F-9788-63924AE804A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1112,7 +1112,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C2A1-48F9-81E3-80081A3252E3}"/>
+              <c16:uniqueId val="{00000004-ED4F-454F-9788-63924AE804A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1428,7 +1428,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D4BE-4E5C-ACBC-4A04243C6E8B}"/>
+              <c16:uniqueId val="{00000000-6381-40A9-A742-9C555EB98CA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1498,7 +1498,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D4BE-4E5C-ACBC-4A04243C6E8B}"/>
+              <c16:uniqueId val="{00000001-6381-40A9-A742-9C555EB98CA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1568,7 +1568,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D4BE-4E5C-ACBC-4A04243C6E8B}"/>
+              <c16:uniqueId val="{00000002-6381-40A9-A742-9C555EB98CA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1792,7 +1792,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D4BE-4E5C-ACBC-4A04243C6E8B}"/>
+              <c16:uniqueId val="{00000004-6381-40A9-A742-9C555EB98CA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2162,7 +2162,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7405-4E24-9666-ADB2974528C7}"/>
+              <c16:uniqueId val="{00000000-6398-4149-9950-000763520929}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2286,7 +2286,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7405-4E24-9666-ADB2974528C7}"/>
+              <c16:uniqueId val="{00000001-6398-4149-9950-000763520929}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2410,7 +2410,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7405-4E24-9666-ADB2974528C7}"/>
+              <c16:uniqueId val="{00000002-6398-4149-9950-000763520929}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2688,7 +2688,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7405-4E24-9666-ADB2974528C7}"/>
+              <c16:uniqueId val="{00000004-6398-4149-9950-000763520929}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3028,7 +3028,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0CDF-4DD3-B412-BBA9A503890D}"/>
+              <c16:uniqueId val="{00000000-2CA8-4CB3-BEF4-57D955DA7F51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3122,7 +3122,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0CDF-4DD3-B412-BBA9A503890D}"/>
+              <c16:uniqueId val="{00000001-2CA8-4CB3-BEF4-57D955DA7F51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3216,7 +3216,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0CDF-4DD3-B412-BBA9A503890D}"/>
+              <c16:uniqueId val="{00000002-2CA8-4CB3-BEF4-57D955DA7F51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3464,7 +3464,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0CDF-4DD3-B412-BBA9A503890D}"/>
+              <c16:uniqueId val="{00000004-2CA8-4CB3-BEF4-57D955DA7F51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3804,7 +3804,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D8E8-4944-A269-00D710603152}"/>
+              <c16:uniqueId val="{00000000-C0A3-4825-88E2-A38C45E77D18}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3898,7 +3898,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D8E8-4944-A269-00D710603152}"/>
+              <c16:uniqueId val="{00000001-C0A3-4825-88E2-A38C45E77D18}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3992,7 +3992,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D8E8-4944-A269-00D710603152}"/>
+              <c16:uniqueId val="{00000002-C0A3-4825-88E2-A38C45E77D18}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4240,7 +4240,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D8E8-4944-A269-00D710603152}"/>
+              <c16:uniqueId val="{00000004-C0A3-4825-88E2-A38C45E77D18}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4598,7 +4598,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F7C3-4041-AB0D-43307CCCA967}"/>
+              <c16:uniqueId val="{00000000-E8DB-4AAD-A1DC-99999AE23D6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4710,7 +4710,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F7C3-4041-AB0D-43307CCCA967}"/>
+              <c16:uniqueId val="{00000001-E8DB-4AAD-A1DC-99999AE23D6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4822,7 +4822,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F7C3-4041-AB0D-43307CCCA967}"/>
+              <c16:uniqueId val="{00000002-E8DB-4AAD-A1DC-99999AE23D6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5088,7 +5088,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F7C3-4041-AB0D-43307CCCA967}"/>
+              <c16:uniqueId val="{00000004-E8DB-4AAD-A1DC-99999AE23D6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5428,7 +5428,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C314-47CD-AF24-322163BDAEBF}"/>
+              <c16:uniqueId val="{00000000-4EE5-4202-8BC7-FCA8856C19EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5522,7 +5522,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C314-47CD-AF24-322163BDAEBF}"/>
+              <c16:uniqueId val="{00000001-4EE5-4202-8BC7-FCA8856C19EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5616,7 +5616,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C314-47CD-AF24-322163BDAEBF}"/>
+              <c16:uniqueId val="{00000002-4EE5-4202-8BC7-FCA8856C19EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5864,7 +5864,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C314-47CD-AF24-322163BDAEBF}"/>
+              <c16:uniqueId val="{00000004-4EE5-4202-8BC7-FCA8856C19EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6093,7 +6093,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD3FF6C-7E74-409E-9A5A-3A1CFB0830CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC00039-651E-4D21-A17C-AB8B9D1F31C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6126,7 +6126,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986A4476-3307-4A21-A70C-03826C6C5CB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243FA753-7346-452E-8A64-46B4E82126D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6159,7 +6159,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F3E34B-41DD-45B6-8940-9BCD69F332D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F237E439-297D-4F39-A484-8D3A686D5547}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6192,7 +6192,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF187E9-D50E-4879-9529-5D1D10E65D15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4719D30F-4987-495C-9810-796F13517493}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6225,7 +6225,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD15EF6-D96A-4AF9-8A48-1649E7407FAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D1C77E-0570-4962-855C-1C932045AA72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6258,7 +6258,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7926C536-F96A-425B-9946-ED8AB7C38784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E87BA15-8DF0-4FC0-AB3D-9E392EF39C6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6291,7 +6291,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EFEC7A-26FD-4CFB-BF43-6FBBFB50CCB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2583154-991E-41A5-9513-71CF9B208130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7133,22 +7133,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{0B4A05E9-0B55-4433-B87F-592B6EF6CDCA}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{58702BB2-3D36-4337-AFF6-2C6A67CBC537}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{912EBBD0-9507-44A1-81D3-7F88AA0BA651}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{01007489-D25A-48EC-9471-D1812AB0B64E}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{E952A40F-A372-463F-89BE-00069DC2F601}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{977FC2C9-5609-46AB-B1C8-CC6C175F0259}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{7CDCC135-B25D-4BC1-AC64-71F3893FE488}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{DC496CB4-C9F8-41F3-B926-2131BDC792E2}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{0069CF5D-657E-4C21-80F8-F4A1B58FACE8}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{1F53CFE5-90F6-479B-8C72-25EE1F86D583}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{844AA379-8D26-4A65-B28A-B2C5126DF8D2}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{7536396C-ECF6-445F-9C68-7AA88C9CAD1F}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{4A1466BE-686C-483F-9AB5-06E33C6145DA}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{C839333A-A0D9-4DA3-8BB5-1ED7977A7D31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA72BA4-C11B-4730-BF60-BC6712BA1B18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB3C434-E2FD-4DA1-9D5B-1BF4F84E14B6}">
   <sheetPr codeName="工作表1" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7164,7 +7164,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -7186,11 +7186,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -7488,9 +7488,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024DBE41-2483-4131-831C-A668020BB84D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8900A05-CD72-41C2-AE33-C37789957906}">
   <sheetPr codeName="工作表2" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7508,7 +7508,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -7530,11 +7530,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -7832,9 +7832,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9092B3B1-ACD8-4CDA-9223-7EBDBC2B1850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F81AC6-CD6F-4A91-AB28-239B53D92AA5}">
   <sheetPr codeName="工作表3" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7850,7 +7850,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -7872,11 +7872,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
@@ -8174,9 +8174,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FB033B-5F10-4675-9839-7882541B23D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08CDC47-E89A-4A52-9585-DD9A30E27DD7}">
   <sheetPr codeName="工作表4" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8192,7 +8192,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -8214,11 +8214,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -8516,9 +8516,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87963E71-2006-45AC-B568-DAC62417509A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692161EA-EAAC-4EA9-BE5B-0D7F62D05558}">
   <sheetPr codeName="工作表5" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8534,7 +8534,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -8556,11 +8556,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -8858,9 +8858,9 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB1B3AA-1429-401A-875A-577AFF4D802E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C032D2E9-7B84-4201-8E1A-C0F0A2991617}">
   <sheetPr codeName="工作表6" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8876,7 +8876,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -8898,11 +8898,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -9200,9 +9200,9 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C231EF1-AA7E-4A44-9A1A-66859D641D18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC004505-89A2-441E-A50B-C90946866266}">
   <sheetPr codeName="工作表7" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -9218,7 +9218,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -9240,11 +9240,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
